--- a/BehaviourChangeTechniques/BCIO-bcto-hierarchy.xlsx
+++ b/BehaviourChangeTechniques/BCIO-bcto-hierarchy.xlsx
@@ -522,7 +522,7 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>b is a generically dependent continuant = Def. b is a continuant that g-depends_on one or more other entities. (axiom label in BFO2 Reference: [074-001])</t>
+          <t>A continuant that is dependent on one or other independent continuant bearers. For every instance of A requires some instance of (an independent continuant type) B but which instance of B serves can change from time to time.</t>
         </is>
       </c>
     </row>
@@ -1112,7 +1112,7 @@
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>spécification d’intervalle de dose</t>
+          <t>dose range specification</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
@@ -1135,7 +1135,7 @@
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
-          <t>characteristic</t>
+          <t>specifically dependent continuant</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
@@ -1147,7 +1147,7 @@
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
-          <t>A continuant that inheres in or is borne by other entities. Every instance of A requires some specific instance of B which must always be the same.</t>
+          <t>b is a relational specifically dependent continuant = Def. b is a specifically dependent continuant and there are n &amp;gt; 1 independent continuants c1, … cn which are not spatial regions are such that for all 1  i &amp;lt; j  n, ci  and cj share no common parts, are such that for each 1  i  n, b s-depends_on ci at every time t during the course of b’s existence (axiom label in BFO2 Reference: [131-004])</t>
         </is>
       </c>
     </row>
@@ -1387,7 +1387,7 @@
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
-          <t>A bodily disposition that is realized in a mental process.</t>
+          <t xml:space="preserve">A mental disposition is a bodily disposition that is realized in a mental process. </t>
         </is>
       </c>
     </row>
@@ -2447,7 +2447,7 @@
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
-          <t>A continuant that is a bearer of quality and realizable entity entities, in which other entities inhere and which itself cannot inhere in anything.</t>
+          <t>b is an independent continuant = Def. b is a continuant which is such that there is no c and no t such that b s-depends_on c at t. (axiom label in BFO2 Reference: [017-002])</t>
         </is>
       </c>
     </row>
@@ -3542,7 +3542,7 @@
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
-          <t>Un établissement de santé qui a pour fonction d'entreposer, préparer, distribuer et surveiller l'utilisation des médicaments parmi les patients d'une zone géographique donnée ou suivis dans une organisation de soin donnée.</t>
+          <t>A health care facility whose function is to store, prepare, dispense, and monitor the usage of pharmaceutical drugs among patients in a given area or encountered in a given health care provider organization.</t>
         </is>
       </c>
     </row>
@@ -3632,7 +3632,7 @@
       <c r="D130" t="inlineStr"/>
       <c r="E130" t="inlineStr">
         <is>
-          <t>organization</t>
+          <t>organisation</t>
         </is>
       </c>
       <c r="F130" t="inlineStr"/>
@@ -4232,7 +4232,7 @@
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
-          <t>A &lt;process&gt; in which at least one bodily component of an organism participates.</t>
+          <t>A process in which at least one bodily component of an organism participates.</t>
         </is>
       </c>
     </row>
@@ -4257,7 +4257,7 @@
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
-          <t>A bodily process that occurs in the brain, and that can of itself be conscious, or can give rise to a process that can of itself be conscious or can give rise to behaviour.</t>
+          <t xml:space="preserve">Valence is a process profile of an emotion, mood, or affective bodily feeling (such as pleasure and pain). Valence can be positive or negative, with different strengths in both directions. For example, pleasure is positively valenced while pain is negatively valenced.  </t>
         </is>
       </c>
     </row>
@@ -4955,7 +4955,7 @@
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr">
         <is>
-          <t>Genuss</t>
+          <t>jouissance</t>
         </is>
       </c>
       <c r="J183" t="inlineStr"/>
@@ -5028,7 +5028,7 @@
       <c r="F186" t="inlineStr"/>
       <c r="G186" t="inlineStr">
         <is>
-          <t>subjective emotional feeling</t>
+          <t>subjective affective feeling</t>
         </is>
       </c>
       <c r="H186" t="inlineStr"/>
@@ -5036,7 +5036,7 @@
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
-          <t>An affective process that involves the experience of internal or external sensory stimuli.</t>
+          <t>The subjective emotional feeling is that (fiat) part of the emotion process by which the organism experiences its own emotion.</t>
         </is>
       </c>
     </row>
@@ -13885,7 +13885,7 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>BCIO:007001</t>
+          <t>BCIO:007239</t>
         </is>
       </c>
       <c r="B448" t="inlineStr"/>
@@ -13894,7 +13894,7 @@
       <c r="E448" t="inlineStr"/>
       <c r="F448" t="inlineStr">
         <is>
-          <t>goal directed BCT</t>
+          <t>prompt thinking related to successful performance BCT</t>
         </is>
       </c>
       <c r="G448" t="inlineStr"/>
@@ -13903,24 +13903,19 @@
       <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr">
         <is>
-          <t>A &lt;behaviour change technique&gt; that sets or changes goals.</t>
+          <t>A &lt;behaviour change technique&gt; that prompts thinking relating to successful performance of the behaviour.</t>
         </is>
       </c>
       <c r="L448" t="inlineStr">
         <is>
           <t>behaviour change technique</t>
-        </is>
-      </c>
-      <c r="P448" t="inlineStr">
-        <is>
-          <t>A goal is a cognitive representation of an end state towards which one is striving.</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>BCIO:007011</t>
+          <t>BCIO:007137</t>
         </is>
       </c>
       <c r="B449" t="inlineStr"/>
@@ -13930,7 +13925,7 @@
       <c r="F449" t="inlineStr"/>
       <c r="G449" t="inlineStr">
         <is>
-          <t>review behaviour goal BCT</t>
+          <t>persuade about personal capability BCT</t>
         </is>
       </c>
       <c r="H449" t="inlineStr"/>
@@ -13938,7 +13933,7 @@
       <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr">
         <is>
-          <t>A &lt;goal directed BCT&gt; that reviews a behavioural goal and considers modifying the goal in light of progress toward the goal.</t>
+          <t>A &lt;prompt thinking related to successful performance BCT&gt; that persuades the person that they can successfully perform the behaviour.</t>
         </is>
       </c>
       <c r="L449" t="inlineStr">
@@ -13946,21 +13941,21 @@
           <t>behaviour change technique</t>
         </is>
       </c>
-      <c r="P449" t="inlineStr">
-        <is>
-          <t>A goal is a cognitive representation of an end state towards which one is striving. If goal specified in terms of behaviour, code this class; if goal unspecified, code 'review outcome goal BCT'; if discrepancy created consider also 'attend to discrepancy between current behaviour and goal BCT'; if modifying the plan to achieve the goal consider also 'review behaviour goal plan BCT'.</t>
+      <c r="O449" t="inlineStr">
+        <is>
+          <t>Arguing against self-doubts; asserting that the person can and will succeed.</t>
         </is>
       </c>
       <c r="Q449" t="inlineStr">
         <is>
-          <t>BCT1.5 Review behaviour goal(s)</t>
+          <t>BCT15.1 Verbal persuasion about capability</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>BCIO:007013</t>
+          <t>BCIO:007060</t>
         </is>
       </c>
       <c r="B450" t="inlineStr"/>
@@ -13970,7 +13965,7 @@
       <c r="F450" t="inlineStr"/>
       <c r="G450" t="inlineStr">
         <is>
-          <t>review outcome goal BCT</t>
+          <t>remind about personal capability BCT</t>
         </is>
       </c>
       <c r="H450" t="inlineStr"/>
@@ -13978,29 +13973,19 @@
       <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr">
         <is>
-          <t>A &lt;goal directed BCT&gt; that reviews an outcome goal and considers modifying the goal in light of achievement.</t>
+          <t>A &lt;prompt thinking related to successful performance BCT&gt; that reminds the person of their skills and abilities that are relevant to the performance of the behaviour.</t>
         </is>
       </c>
       <c r="L450" t="inlineStr">
         <is>
           <t>behaviour change technique</t>
-        </is>
-      </c>
-      <c r="P450" t="inlineStr">
-        <is>
-          <t>A goal is a cognitive representation of an end state towards which one is striving. If goal specified in terms of behaviour, code 'review behaviour goal BCT'; if goal unspecified, code this class; if discrepancy created consider also 'attend to discrepancy between current behaviour and goal BCT'.</t>
-        </is>
-      </c>
-      <c r="Q450" t="inlineStr">
-        <is>
-          <t>BCT1.7 Review outcome goal(s)</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>BCIO:007122</t>
+          <t>BCIO:007138</t>
         </is>
       </c>
       <c r="B451" t="inlineStr"/>
@@ -14010,7 +13995,7 @@
       <c r="F451" t="inlineStr"/>
       <c r="G451" t="inlineStr">
         <is>
-          <t>make a goal public BCT</t>
+          <t>prompt mental rehearsal of successful performance BCT</t>
         </is>
       </c>
       <c r="H451" t="inlineStr"/>
@@ -14018,7 +14003,7 @@
       <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr">
         <is>
-          <t>A &lt;goal directed BCT&gt; that involves the person communicating their intention to achieve a goal.</t>
+          <t>A &lt;prompt thinking related to successful performance BCT&gt; that prompts the person to practise imagining performing the behaviour well in a relevant context.</t>
         </is>
       </c>
       <c r="L451" t="inlineStr">
@@ -14026,16 +14011,16 @@
           <t>behaviour change technique</t>
         </is>
       </c>
-      <c r="P451" t="inlineStr">
-        <is>
-          <t>The goal being made public can be in terms of behaviour (e.g. to walk for 30 minutes a day) or an outcome of behaviour (e.g. to lose 5kg of body weight)</t>
+      <c r="Q451" t="inlineStr">
+        <is>
+          <t>BCT15.2 Mental rehearsal of successful performance</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>BCIO:007299</t>
+          <t>BCIO:007140</t>
         </is>
       </c>
       <c r="B452" t="inlineStr"/>
@@ -14045,7 +14030,7 @@
       <c r="F452" t="inlineStr"/>
       <c r="G452" t="inlineStr">
         <is>
-          <t>review behaviour goal plan BCT</t>
+          <t>prompt self-talk BCT</t>
         </is>
       </c>
       <c r="H452" t="inlineStr"/>
@@ -14053,7 +14038,7 @@
       <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr">
         <is>
-          <t>A &lt;goal directed BCT&gt; that reviews progress towards a behavioural goal and considers modifying the plan to achieve the goal.</t>
+          <t>A &lt;prompt thinking related to successful performance BCT&gt; that promotes the use of positive self-talk before or during the behaviour.</t>
         </is>
       </c>
       <c r="L452" t="inlineStr">
@@ -14063,14 +14048,19 @@
       </c>
       <c r="P452" t="inlineStr">
         <is>
-          <t>A goal is a cognitive representation of an end state towards which one is striving.</t>
+          <t>Self-talk could be about the behaviour or the context of the behaviour. Self-talk does not need to be spoken aloud</t>
+        </is>
+      </c>
+      <c r="Q452" t="inlineStr">
+        <is>
+          <t>BCT15.4 Self-talk</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>BCIO:007010</t>
+          <t>BCIO:007139</t>
         </is>
       </c>
       <c r="B453" t="inlineStr"/>
@@ -14080,7 +14070,7 @@
       <c r="F453" t="inlineStr"/>
       <c r="G453" t="inlineStr">
         <is>
-          <t>action planning BCT</t>
+          <t>prompt focus on past success BCT</t>
         </is>
       </c>
       <c r="H453" t="inlineStr"/>
@@ -14088,7 +14078,7 @@
       <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr">
         <is>
-          <t>A &lt;goal directed BCT&gt; that involves making a detailed plan for the performance of the behaviour, which must include at least one of context, frequency, duration or intensity.</t>
+          <t>A &lt;prompt thinking related to successful performance BCT&gt; that prompts the person to think about previous successful performance of the behaviour.</t>
         </is>
       </c>
       <c r="L453" t="inlineStr">
@@ -14096,51 +14086,51 @@
           <t>behaviour change technique</t>
         </is>
       </c>
-      <c r="P453" t="inlineStr">
-        <is>
-          <t>Evidence of action planning does not necessarily imply goal setting, only code latter if sufficient evidence.</t>
-        </is>
-      </c>
       <c r="Q453" t="inlineStr">
         <is>
-          <t>BCT1.4 Action planning</t>
+          <t>BCT15.3 Focus on past success</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>BCIO:007171</t>
+          <t>BCIO:007001</t>
         </is>
       </c>
       <c r="B454" t="inlineStr"/>
       <c r="C454" t="inlineStr"/>
       <c r="D454" t="inlineStr"/>
       <c r="E454" t="inlineStr"/>
-      <c r="F454" t="inlineStr"/>
-      <c r="G454" t="inlineStr">
-        <is>
-          <t>facilitate alternative goal-directed activity BCT</t>
-        </is>
-      </c>
+      <c r="F454" t="inlineStr">
+        <is>
+          <t>goal directed BCT</t>
+        </is>
+      </c>
+      <c r="G454" t="inlineStr"/>
       <c r="H454" t="inlineStr"/>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr">
         <is>
-          <t>A &lt;goal directed BCT&gt; that enables the person to engage in an alternative rewarding behaviour that increases the likelihood of goal achievement.</t>
+          <t>A &lt;behaviour change technique&gt; that sets or changes goals.</t>
         </is>
       </c>
       <c r="L454" t="inlineStr">
         <is>
           <t>behaviour change technique</t>
+        </is>
+      </c>
+      <c r="P454" t="inlineStr">
+        <is>
+          <t>A goal is a cognitive representation of an end state towards which one is striving.</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>BCIO:050446</t>
+          <t>BCIO:007013</t>
         </is>
       </c>
       <c r="B455" t="inlineStr"/>
@@ -14150,7 +14140,7 @@
       <c r="F455" t="inlineStr"/>
       <c r="G455" t="inlineStr">
         <is>
-          <t>change outcome goal BCT</t>
+          <t>review outcome goal BCT</t>
         </is>
       </c>
       <c r="H455" t="inlineStr"/>
@@ -14158,7 +14148,7 @@
       <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr">
         <is>
-          <t>A &lt;goal directed BCT&gt; that changes an existing goal for the outcome to be achieved.</t>
+          <t>A &lt;goal directed BCT&gt; that reviews an outcome goal and considers modifying the goal in light of achievement.</t>
         </is>
       </c>
       <c r="L455" t="inlineStr">
@@ -14168,14 +14158,19 @@
       </c>
       <c r="P455" t="inlineStr">
         <is>
-          <t>A goal is a cognitive representation of an end state towards which one is striving.</t>
+          <t>A goal is a cognitive representation of an end state towards which one is striving. If goal specified in terms of behaviour, code 'review behaviour goal BCT'; if goal unspecified, code this class; if discrepancy created consider also 'attend to discrepancy between current behaviour and goal BCT'.</t>
+        </is>
+      </c>
+      <c r="Q455" t="inlineStr">
+        <is>
+          <t>BCT1.7 Review outcome goal(s)</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>BCIO:007002</t>
+          <t>BCIO:007011</t>
         </is>
       </c>
       <c r="B456" t="inlineStr"/>
@@ -14185,7 +14180,7 @@
       <c r="F456" t="inlineStr"/>
       <c r="G456" t="inlineStr">
         <is>
-          <t>goal setting BCT</t>
+          <t>review behaviour goal BCT</t>
         </is>
       </c>
       <c r="H456" t="inlineStr"/>
@@ -14193,7 +14188,7 @@
       <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr">
         <is>
-          <t>A &lt;goal directed BCT&gt; that sets goals.</t>
+          <t>A &lt;goal directed BCT&gt; that reviews a behavioural goal and considers modifying the goal in light of progress toward the goal.</t>
         </is>
       </c>
       <c r="L456" t="inlineStr">
@@ -14203,14 +14198,19 @@
       </c>
       <c r="P456" t="inlineStr">
         <is>
-          <t>A goal is a cognitive representation of an end state towards which one is striving. The goal could be set for the self or another person.</t>
+          <t>A goal is a cognitive representation of an end state towards which one is striving. If goal specified in terms of behaviour, code this class; if goal unspecified, code 'review outcome goal BCT'; if discrepancy created consider also 'attend to discrepancy between current behaviour and goal BCT'; if modifying the plan to achieve the goal consider also 'review behaviour goal plan BCT'.</t>
+        </is>
+      </c>
+      <c r="Q456" t="inlineStr">
+        <is>
+          <t>BCT1.5 Review behaviour goal(s)</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>BCIO:007006</t>
+          <t>BCIO:007122</t>
         </is>
       </c>
       <c r="B457" t="inlineStr"/>
@@ -14218,17 +14218,17 @@
       <c r="D457" t="inlineStr"/>
       <c r="E457" t="inlineStr"/>
       <c r="F457" t="inlineStr"/>
-      <c r="G457" t="inlineStr"/>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>agree outcome goal BCT</t>
-        </is>
-      </c>
+      <c r="G457" t="inlineStr">
+        <is>
+          <t>make a goal public BCT</t>
+        </is>
+      </c>
+      <c r="H457" t="inlineStr"/>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr">
         <is>
-          <t>A &lt;goal setting BCT&gt; that involves the intervention source agreeing with the person on a goal which is a positive outcome of performing the behaviour.</t>
+          <t>A &lt;goal directed BCT&gt; that involves the person communicating their intention to achieve a goal.</t>
         </is>
       </c>
       <c r="L457" t="inlineStr">
@@ -14236,26 +14236,16 @@
           <t>behaviour change technique</t>
         </is>
       </c>
-      <c r="N457" t="inlineStr">
-        <is>
-          <t>objective setting</t>
-        </is>
-      </c>
       <c r="P457" t="inlineStr">
         <is>
-          <t>A goal is a cognitive representation of an end state towards which one is striving.</t>
-        </is>
-      </c>
-      <c r="Q457" t="inlineStr">
-        <is>
-          <t>BCT1.3 Goal setting (outcome)</t>
+          <t>The goal being made public can be in terms of behaviour (e.g. to walk for 30 minutes a day) or an outcome of behaviour (e.g. to lose 5kg of body weight)</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>BCIO:007003</t>
+          <t>BCIO:007299</t>
         </is>
       </c>
       <c r="B458" t="inlineStr"/>
@@ -14263,17 +14253,17 @@
       <c r="D458" t="inlineStr"/>
       <c r="E458" t="inlineStr"/>
       <c r="F458" t="inlineStr"/>
-      <c r="G458" t="inlineStr"/>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>set behaviour goal BCT</t>
-        </is>
-      </c>
+      <c r="G458" t="inlineStr">
+        <is>
+          <t>review behaviour goal plan BCT</t>
+        </is>
+      </c>
+      <c r="H458" t="inlineStr"/>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr">
         <is>
-          <t>A &lt;goal setting BCT&gt; that sets a goal for the behaviour to be achieved.</t>
+          <t>A &lt;goal directed BCT&gt; that reviews progress towards a behavioural goal and considers modifying the plan to achieve the goal.</t>
         </is>
       </c>
       <c r="L458" t="inlineStr">
@@ -14283,19 +14273,14 @@
       </c>
       <c r="P458" t="inlineStr">
         <is>
-          <t>A goal is a cognitive representation of an end state towards which one is striving. The goal could be set for the self or another person. Only code if there is sufficient evidence that the goal is set as part of intervention; if goal is a behavioural outcome, code 'set outcome goal BCT'; if goal unspecified code 'goal setting BCT'; if the goal defines a specific context, frequency, duration or intensity for the behaviour, also code 'action planning BCT'.</t>
-        </is>
-      </c>
-      <c r="Q458" t="inlineStr">
-        <is>
-          <t>BCT1.1 Goal setting (behaviour)</t>
+          <t>A goal is a cognitive representation of an end state towards which one is striving.</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>BCIO:007300</t>
+          <t>BCIO:007010</t>
         </is>
       </c>
       <c r="B459" t="inlineStr"/>
@@ -14303,17 +14288,17 @@
       <c r="D459" t="inlineStr"/>
       <c r="E459" t="inlineStr"/>
       <c r="F459" t="inlineStr"/>
-      <c r="G459" t="inlineStr"/>
+      <c r="G459" t="inlineStr">
+        <is>
+          <t>action planning BCT</t>
+        </is>
+      </c>
       <c r="H459" t="inlineStr"/>
-      <c r="I459" t="inlineStr">
-        <is>
-          <t>set measurable behaviour goal BCT</t>
-        </is>
-      </c>
+      <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr">
         <is>
-          <t>A &lt;set behaviour goal BCT&gt; that describes the behaviour to be achieved in terms of a measurable target.</t>
+          <t>A &lt;goal directed BCT&gt; that involves making a detailed plan for the performance of the behaviour, which must include at least one of context, frequency, duration or intensity.</t>
         </is>
       </c>
       <c r="L459" t="inlineStr">
@@ -14323,14 +14308,19 @@
       </c>
       <c r="P459" t="inlineStr">
         <is>
-          <t>A behaviour goal might be set in general terms e.g. "to do more physical activity" or in measurable terms e.g. "to do 30 minutes of physical activity five times a week" or "to walk 8000 steps a day." Use this class for measurable behaviour goals</t>
+          <t>Evidence of action planning does not necessarily imply goal setting, only code latter if sufficient evidence.</t>
+        </is>
+      </c>
+      <c r="Q459" t="inlineStr">
+        <is>
+          <t>BCT1.4 Action planning</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>BCIO:007004</t>
+          <t>BCIO:007171</t>
         </is>
       </c>
       <c r="B460" t="inlineStr"/>
@@ -14338,39 +14328,29 @@
       <c r="D460" t="inlineStr"/>
       <c r="E460" t="inlineStr"/>
       <c r="F460" t="inlineStr"/>
-      <c r="G460" t="inlineStr"/>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>agree behaviour goal BCT</t>
-        </is>
-      </c>
+      <c r="G460" t="inlineStr">
+        <is>
+          <t>facilitate alternative goal-directed activity BCT</t>
+        </is>
+      </c>
+      <c r="H460" t="inlineStr"/>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr">
         <is>
-          <t>A &lt;goal setting BCT&gt; that involves the intervention source agreeing with the person on a behavioural goal.</t>
+          <t>A &lt;goal directed BCT&gt; that enables the person to engage in an alternative rewarding behaviour that increases the likelihood of goal achievement.</t>
         </is>
       </c>
       <c r="L460" t="inlineStr">
         <is>
           <t>behaviour change technique</t>
-        </is>
-      </c>
-      <c r="P460" t="inlineStr">
-        <is>
-          <t>A goal is a cognitive representation of an end state towards which one is striving.</t>
-        </is>
-      </c>
-      <c r="Q460" t="inlineStr">
-        <is>
-          <t>BCT1.1 Goal setting (behaviour)</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>BCIO:007005</t>
+          <t>BCIO:050446</t>
         </is>
       </c>
       <c r="B461" t="inlineStr"/>
@@ -14378,17 +14358,17 @@
       <c r="D461" t="inlineStr"/>
       <c r="E461" t="inlineStr"/>
       <c r="F461" t="inlineStr"/>
-      <c r="G461" t="inlineStr"/>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>set outcome goal BCT</t>
-        </is>
-      </c>
+      <c r="G461" t="inlineStr">
+        <is>
+          <t>change outcome goal BCT</t>
+        </is>
+      </c>
+      <c r="H461" t="inlineStr"/>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr">
         <is>
-          <t>A &lt;goal setting BCT&gt; in which the goal is a positive outcome of performing the behaviour.</t>
+          <t>A &lt;goal directed BCT&gt; that changes an existing goal for the outcome to be achieved.</t>
         </is>
       </c>
       <c r="L461" t="inlineStr">
@@ -14398,19 +14378,14 @@
       </c>
       <c r="P461" t="inlineStr">
         <is>
-          <t>A goal is a cognitive representation of an end state towards which one is striving. The goal could be set for the self or another person. Only code guidelines if set as a goal in an intervention context; if goal is a behaviour, code 'set behaviour goal BCT'; if goal unspecified code 'goal setting BCT'.</t>
-        </is>
-      </c>
-      <c r="Q461" t="inlineStr">
-        <is>
-          <t>BCT1.3 Goal setting (outcome)</t>
+          <t>A goal is a cognitive representation of an end state towards which one is striving.</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>BCIO:007301</t>
+          <t>BCIO:007002</t>
         </is>
       </c>
       <c r="B462" t="inlineStr"/>
@@ -14418,17 +14393,17 @@
       <c r="D462" t="inlineStr"/>
       <c r="E462" t="inlineStr"/>
       <c r="F462" t="inlineStr"/>
-      <c r="G462" t="inlineStr"/>
+      <c r="G462" t="inlineStr">
+        <is>
+          <t>goal setting BCT</t>
+        </is>
+      </c>
       <c r="H462" t="inlineStr"/>
-      <c r="I462" t="inlineStr">
-        <is>
-          <t>set measurable outcome goal BCT</t>
-        </is>
-      </c>
+      <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr">
         <is>
-          <t>A &lt;set outcome goal BCT&gt; that describes the behavioural outcome to be achieved in terms of a measurable target.</t>
+          <t>A &lt;goal directed BCT&gt; that sets goals.</t>
         </is>
       </c>
       <c r="L462" t="inlineStr">
@@ -14438,14 +14413,14 @@
       </c>
       <c r="P462" t="inlineStr">
         <is>
-          <t>An outcome goal might be set in general terms - e.g. "to lose weight" or in measurable terms - e.g. "to lose 5kg of weight" or "to lose 10% of my body weight". Use this class for measurable outcome goals</t>
+          <t>A goal is a cognitive representation of an end state towards which one is striving. The goal could be set for the self or another person.</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>BCIO:050445</t>
+          <t>BCIO:007006</t>
         </is>
       </c>
       <c r="B463" t="inlineStr"/>
@@ -14453,17 +14428,17 @@
       <c r="D463" t="inlineStr"/>
       <c r="E463" t="inlineStr"/>
       <c r="F463" t="inlineStr"/>
-      <c r="G463" t="inlineStr">
-        <is>
-          <t>change behaviour goal BCT</t>
-        </is>
-      </c>
-      <c r="H463" t="inlineStr"/>
+      <c r="G463" t="inlineStr"/>
+      <c r="H463" t="inlineStr">
+        <is>
+          <t>agree outcome goal BCT</t>
+        </is>
+      </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr">
         <is>
-          <t>A &lt;goal directed BCT&gt; that changes an existing goal for the behaviour to be achieved.</t>
+          <t>A &lt;goal setting BCT&gt; that involves the intervention source agreeing with the person on a goal which is a positive outcome of performing the behaviour.</t>
         </is>
       </c>
       <c r="L463" t="inlineStr">
@@ -14471,16 +14446,26 @@
           <t>behaviour change technique</t>
         </is>
       </c>
+      <c r="N463" t="inlineStr">
+        <is>
+          <t>objective setting</t>
+        </is>
+      </c>
       <c r="P463" t="inlineStr">
         <is>
           <t>A goal is a cognitive representation of an end state towards which one is striving.</t>
+        </is>
+      </c>
+      <c r="Q463" t="inlineStr">
+        <is>
+          <t>BCT1.3 Goal setting (outcome)</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>BCIO:007141</t>
+          <t>BCIO:007003</t>
         </is>
       </c>
       <c r="B464" t="inlineStr"/>
@@ -14488,29 +14473,39 @@
       <c r="D464" t="inlineStr"/>
       <c r="E464" t="inlineStr"/>
       <c r="F464" t="inlineStr"/>
-      <c r="G464" t="inlineStr">
-        <is>
-          <t>advise to keep behaviour goal in mind BCT</t>
-        </is>
-      </c>
-      <c r="H464" t="inlineStr"/>
+      <c r="G464" t="inlineStr"/>
+      <c r="H464" t="inlineStr">
+        <is>
+          <t>set behaviour goal BCT</t>
+        </is>
+      </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr">
         <is>
-          <t>A &lt;goal directed BCT&gt; that advises the person to find ways to remind themselves of their behavioural goal.</t>
+          <t>A &lt;goal setting BCT&gt; that sets a goal for the behaviour to be achieved.</t>
         </is>
       </c>
       <c r="L464" t="inlineStr">
         <is>
           <t>behaviour change technique</t>
+        </is>
+      </c>
+      <c r="P464" t="inlineStr">
+        <is>
+          <t>A goal is a cognitive representation of an end state towards which one is striving. The goal could be set for the self or another person. Only code if there is sufficient evidence that the goal is set as part of intervention; if goal is a behavioural outcome, code 'set outcome goal BCT'; if goal unspecified code 'goal setting BCT'; if the goal defines a specific context, frequency, duration or intensity for the behaviour, also code 'action planning BCT'.</t>
+        </is>
+      </c>
+      <c r="Q464" t="inlineStr">
+        <is>
+          <t>BCT1.1 Goal setting (behaviour)</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>BCIO:007015</t>
+          <t>BCIO:007300</t>
         </is>
       </c>
       <c r="B465" t="inlineStr"/>
@@ -14518,17 +14513,17 @@
       <c r="D465" t="inlineStr"/>
       <c r="E465" t="inlineStr"/>
       <c r="F465" t="inlineStr"/>
-      <c r="G465" t="inlineStr">
-        <is>
-          <t>affirm commitment BCT</t>
-        </is>
-      </c>
+      <c r="G465" t="inlineStr"/>
       <c r="H465" t="inlineStr"/>
-      <c r="I465" t="inlineStr"/>
+      <c r="I465" t="inlineStr">
+        <is>
+          <t>set measurable behaviour goal BCT</t>
+        </is>
+      </c>
       <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr">
         <is>
-          <t>A &lt;goal directed BCT&gt; that asks the person to affirm or reaffirm statements indicating commitment to change the behaviour.</t>
+          <t>A &lt;set behaviour goal BCT&gt; that describes the behaviour to be achieved in terms of a measurable target.</t>
         </is>
       </c>
       <c r="L465" t="inlineStr">
@@ -14536,26 +14531,16 @@
           <t>behaviour change technique</t>
         </is>
       </c>
-      <c r="N465" t="inlineStr">
-        <is>
-          <t>commitment</t>
-        </is>
-      </c>
       <c r="P465" t="inlineStr">
         <is>
-          <t>If defined in terms of the behaviour to be achieved also code 'set behaviour goal BCT'.</t>
-        </is>
-      </c>
-      <c r="Q465" t="inlineStr">
-        <is>
-          <t>BCT1.9 Commitment</t>
+          <t>A behaviour goal might be set in general terms e.g. "to do more physical activity" or in measurable terms e.g. "to do 30 minutes of physical activity five times a week" or "to walk 8000 steps a day." Use this class for measurable behaviour goals</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>BCIO:007061</t>
+          <t>BCIO:007004</t>
         </is>
       </c>
       <c r="B466" t="inlineStr"/>
@@ -14563,29 +14548,39 @@
       <c r="D466" t="inlineStr"/>
       <c r="E466" t="inlineStr"/>
       <c r="F466" t="inlineStr"/>
-      <c r="G466" t="inlineStr">
-        <is>
-          <t>plan inclusion of enjoyment BCT</t>
-        </is>
-      </c>
-      <c r="H466" t="inlineStr"/>
+      <c r="G466" t="inlineStr"/>
+      <c r="H466" t="inlineStr">
+        <is>
+          <t>agree behaviour goal BCT</t>
+        </is>
+      </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr">
         <is>
-          <t>A &lt;goal directed BCT&gt; that advises the person to plan a way of performing the behaviour that is pleasurable or satisfying.</t>
+          <t>A &lt;goal setting BCT&gt; that involves the intervention source agreeing with the person on a behavioural goal.</t>
         </is>
       </c>
       <c r="L466" t="inlineStr">
         <is>
           <t>behaviour change technique</t>
+        </is>
+      </c>
+      <c r="P466" t="inlineStr">
+        <is>
+          <t>A goal is a cognitive representation of an end state towards which one is striving.</t>
+        </is>
+      </c>
+      <c r="Q466" t="inlineStr">
+        <is>
+          <t>BCT1.1 Goal setting (behaviour)</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>BCIO:007100</t>
+          <t>BCIO:007005</t>
         </is>
       </c>
       <c r="B467" t="inlineStr"/>
@@ -14593,17 +14588,17 @@
       <c r="D467" t="inlineStr"/>
       <c r="E467" t="inlineStr"/>
       <c r="F467" t="inlineStr"/>
-      <c r="G467" t="inlineStr">
-        <is>
-          <t>set graded tasks BCT</t>
-        </is>
-      </c>
-      <c r="H467" t="inlineStr"/>
+      <c r="G467" t="inlineStr"/>
+      <c r="H467" t="inlineStr">
+        <is>
+          <t>set outcome goal BCT</t>
+        </is>
+      </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr">
         <is>
-          <t>A &lt;goal directed BCT&gt; that sets easy-to-perform tasks for the person, making them increasingly difficult, but achievable, until the behaviour is performed.</t>
+          <t>A &lt;goal setting BCT&gt; in which the goal is a positive outcome of performing the behaviour.</t>
         </is>
       </c>
       <c r="L467" t="inlineStr">
@@ -14611,21 +14606,21 @@
           <t>behaviour change technique</t>
         </is>
       </c>
-      <c r="N467" t="inlineStr">
-        <is>
-          <t>graded tasks</t>
+      <c r="P467" t="inlineStr">
+        <is>
+          <t>A goal is a cognitive representation of an end state towards which one is striving. The goal could be set for the self or another person. Only code guidelines if set as a goal in an intervention context; if goal is a behaviour, code 'set behaviour goal BCT'; if goal unspecified code 'goal setting BCT'.</t>
         </is>
       </c>
       <c r="Q467" t="inlineStr">
         <is>
-          <t>BCT8.7 Graded tasks</t>
+          <t>BCT1.3 Goal setting (outcome)</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>BCIO:007008</t>
+          <t>BCIO:007301</t>
         </is>
       </c>
       <c r="B468" t="inlineStr"/>
@@ -14633,17 +14628,17 @@
       <c r="D468" t="inlineStr"/>
       <c r="E468" t="inlineStr"/>
       <c r="F468" t="inlineStr"/>
-      <c r="G468" t="inlineStr">
-        <is>
-          <t>goal strategising BCT</t>
-        </is>
-      </c>
+      <c r="G468" t="inlineStr"/>
       <c r="H468" t="inlineStr"/>
-      <c r="I468" t="inlineStr"/>
+      <c r="I468" t="inlineStr">
+        <is>
+          <t>set measurable outcome goal BCT</t>
+        </is>
+      </c>
       <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr">
         <is>
-          <t>A &lt;goal directed BCT&gt; in which the person analyses factors influencing the behaviour and generates, selects, or reviews strategies to increase facilitators and overcome barriers.</t>
+          <t>A &lt;set outcome goal BCT&gt; that describes the behavioural outcome to be achieved in terms of a measurable target.</t>
         </is>
       </c>
       <c r="L468" t="inlineStr">
@@ -14651,26 +14646,16 @@
           <t>behaviour change technique</t>
         </is>
       </c>
-      <c r="N468" t="inlineStr">
-        <is>
-          <t>relapse prevention, coping planning, problem solving</t>
-        </is>
-      </c>
       <c r="P468" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barrier identification without strategies to increase facilitators is not sufficient. </t>
-        </is>
-      </c>
-      <c r="Q468" t="inlineStr">
-        <is>
-          <t>BCT1.2 Problem solving</t>
+          <t>An outcome goal might be set in general terms - e.g. "to lose weight" or in measurable terms - e.g. "to lose 5kg of weight" or "to lose 10% of my body weight". Use this class for measurable outcome goals</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>BCIO:007142</t>
+          <t>BCIO:050445</t>
         </is>
       </c>
       <c r="B469" t="inlineStr"/>
@@ -14680,7 +14665,7 @@
       <c r="F469" t="inlineStr"/>
       <c r="G469" t="inlineStr">
         <is>
-          <t>advise to keep outcome goal in mind BCT</t>
+          <t>change behaviour goal BCT</t>
         </is>
       </c>
       <c r="H469" t="inlineStr"/>
@@ -14688,19 +14673,24 @@
       <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr">
         <is>
-          <t>A &lt;goal directed BCT&gt; that advises the person to find ways to remind themselves of their goal in terms of a desired outcome of performing the behaviour.</t>
+          <t>A &lt;goal directed BCT&gt; that changes an existing goal for the behaviour to be achieved.</t>
         </is>
       </c>
       <c r="L469" t="inlineStr">
         <is>
           <t>behaviour change technique</t>
+        </is>
+      </c>
+      <c r="P469" t="inlineStr">
+        <is>
+          <t>A goal is a cognitive representation of an end state towards which one is striving.</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>BCIO:007014</t>
+          <t>BCIO:007141</t>
         </is>
       </c>
       <c r="B470" t="inlineStr"/>
@@ -14710,7 +14700,7 @@
       <c r="F470" t="inlineStr"/>
       <c r="G470" t="inlineStr">
         <is>
-          <t>create behavioural contract BCT</t>
+          <t>advise to keep behaviour goal in mind BCT</t>
         </is>
       </c>
       <c r="H470" t="inlineStr"/>
@@ -14718,34 +14708,19 @@
       <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr">
         <is>
-          <t>A &lt;goal directed BCT&gt; that creates a written specification of the behaviour to be performed, agreed on by the person, and witnessed by another person.</t>
+          <t>A &lt;goal directed BCT&gt; that advises the person to find ways to remind themselves of their behavioural goal.</t>
         </is>
       </c>
       <c r="L470" t="inlineStr">
         <is>
           <t>behaviour change technique</t>
-        </is>
-      </c>
-      <c r="N470" t="inlineStr">
-        <is>
-          <t>behavioural contract</t>
-        </is>
-      </c>
-      <c r="P470" t="inlineStr">
-        <is>
-          <t>The person witnessing the agreement can be the intervention source or another person who is present at the time. Also code 'set behaviour goal BCT'.</t>
-        </is>
-      </c>
-      <c r="Q470" t="inlineStr">
-        <is>
-          <t>BCT1.8 Behavioural contract</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>BCIO:007012</t>
+          <t>BCIO:007015</t>
         </is>
       </c>
       <c r="B471" t="inlineStr"/>
@@ -14755,7 +14730,7 @@
       <c r="F471" t="inlineStr"/>
       <c r="G471" t="inlineStr">
         <is>
-          <t>attend to discrepancy between current behaviour and goal BCT</t>
+          <t>affirm commitment BCT</t>
         </is>
       </c>
       <c r="H471" t="inlineStr"/>
@@ -14763,7 +14738,7 @@
       <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr">
         <is>
-          <t>A &lt;goal directed BCT&gt; that draws attention to discrepancies between a person's current behaviour and the person's outcome goal, behavioural goal or action plan.</t>
+          <t>A &lt;goal directed BCT&gt; that asks the person to affirm or reaffirm statements indicating commitment to change the behaviour.</t>
         </is>
       </c>
       <c r="L471" t="inlineStr">
@@ -14771,21 +14746,26 @@
           <t>behaviour change technique</t>
         </is>
       </c>
+      <c r="N471" t="inlineStr">
+        <is>
+          <t>commitment</t>
+        </is>
+      </c>
       <c r="P471" t="inlineStr">
         <is>
-          <t>If discomfort is created only code 'draw attention to incompatible beliefs BCT' and not this class. If goals are modified, also code 'review behaviour goal BCT' and/or 'review outcome goal BCT'; if feedback provided, also code 'provide feedback BCT' or one of its child classes.</t>
+          <t>If defined in terms of the behaviour to be achieved also code 'set behaviour goal BCT'.</t>
         </is>
       </c>
       <c r="Q471" t="inlineStr">
         <is>
-          <t>BCT1.6 Discrepancy between current behaviour and goal</t>
+          <t>BCT1.9 Commitment</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>BCIO:007016</t>
+          <t>BCIO:007061</t>
         </is>
       </c>
       <c r="B472" t="inlineStr"/>
@@ -14795,7 +14775,7 @@
       <c r="F472" t="inlineStr"/>
       <c r="G472" t="inlineStr">
         <is>
-          <t>advise goal integration BCT</t>
+          <t>plan inclusion of enjoyment BCT</t>
         </is>
       </c>
       <c r="H472" t="inlineStr"/>
@@ -14803,54 +14783,59 @@
       <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr">
         <is>
-          <t>A &lt;goal directed BCT&gt; that advises the person to adopt more than one goal in a situation where the goals facilitate each other.</t>
+          <t>A &lt;goal directed BCT&gt; that advises the person to plan a way of performing the behaviour that is pleasurable or satisfying.</t>
         </is>
       </c>
       <c r="L472" t="inlineStr">
         <is>
           <t>behaviour change technique</t>
-        </is>
-      </c>
-      <c r="N472" t="inlineStr">
-        <is>
-          <t>goal facilitation</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>BCIO:007239</t>
+          <t>BCIO:007100</t>
         </is>
       </c>
       <c r="B473" t="inlineStr"/>
       <c r="C473" t="inlineStr"/>
       <c r="D473" t="inlineStr"/>
       <c r="E473" t="inlineStr"/>
-      <c r="F473" t="inlineStr">
-        <is>
-          <t>prompt thinking related to successful performance BCT</t>
-        </is>
-      </c>
-      <c r="G473" t="inlineStr"/>
+      <c r="F473" t="inlineStr"/>
+      <c r="G473" t="inlineStr">
+        <is>
+          <t>set graded tasks BCT</t>
+        </is>
+      </c>
       <c r="H473" t="inlineStr"/>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr">
         <is>
-          <t>A &lt;behaviour change technique&gt; that prompts thinking relating to successful performance of the behaviour.</t>
+          <t>A &lt;goal directed BCT&gt; that sets easy-to-perform tasks for the person, making them increasingly difficult, but achievable, until the behaviour is performed.</t>
         </is>
       </c>
       <c r="L473" t="inlineStr">
         <is>
           <t>behaviour change technique</t>
+        </is>
+      </c>
+      <c r="N473" t="inlineStr">
+        <is>
+          <t>graded tasks</t>
+        </is>
+      </c>
+      <c r="Q473" t="inlineStr">
+        <is>
+          <t>BCT8.7 Graded tasks</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>BCIO:007137</t>
+          <t>BCIO:007008</t>
         </is>
       </c>
       <c r="B474" t="inlineStr"/>
@@ -14860,7 +14845,7 @@
       <c r="F474" t="inlineStr"/>
       <c r="G474" t="inlineStr">
         <is>
-          <t>persuade about personal capability BCT</t>
+          <t>goal strategising BCT</t>
         </is>
       </c>
       <c r="H474" t="inlineStr"/>
@@ -14868,7 +14853,7 @@
       <c r="J474" t="inlineStr"/>
       <c r="K474" t="inlineStr">
         <is>
-          <t>A &lt;prompt thinking related to successful performance BCT&gt; that persuades the person that they can successfully perform the behaviour.</t>
+          <t>A &lt;goal directed BCT&gt; in which the person analyses factors influencing the behaviour and generates, selects, or reviews strategies to increase facilitators and overcome barriers.</t>
         </is>
       </c>
       <c r="L474" t="inlineStr">
@@ -14876,21 +14861,26 @@
           <t>behaviour change technique</t>
         </is>
       </c>
-      <c r="O474" t="inlineStr">
-        <is>
-          <t>Arguing against self-doubts; asserting that the person can and will succeed.</t>
+      <c r="N474" t="inlineStr">
+        <is>
+          <t>relapse prevention, coping planning, problem solving</t>
+        </is>
+      </c>
+      <c r="P474" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barrier identification without strategies to increase facilitators is not sufficient. </t>
         </is>
       </c>
       <c r="Q474" t="inlineStr">
         <is>
-          <t>BCT15.1 Verbal persuasion about capability</t>
+          <t>BCT1.2 Problem solving</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>BCIO:007060</t>
+          <t>BCIO:007142</t>
         </is>
       </c>
       <c r="B475" t="inlineStr"/>
@@ -14900,7 +14890,7 @@
       <c r="F475" t="inlineStr"/>
       <c r="G475" t="inlineStr">
         <is>
-          <t>remind about personal capability BCT</t>
+          <t>advise to keep outcome goal in mind BCT</t>
         </is>
       </c>
       <c r="H475" t="inlineStr"/>
@@ -14908,7 +14898,7 @@
       <c r="J475" t="inlineStr"/>
       <c r="K475" t="inlineStr">
         <is>
-          <t>A &lt;prompt thinking related to successful performance BCT&gt; that reminds the person of their skills and abilities that are relevant to the performance of the behaviour.</t>
+          <t>A &lt;goal directed BCT&gt; that advises the person to find ways to remind themselves of their goal in terms of a desired outcome of performing the behaviour.</t>
         </is>
       </c>
       <c r="L475" t="inlineStr">
@@ -14920,7 +14910,7 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>BCIO:007138</t>
+          <t>BCIO:007014</t>
         </is>
       </c>
       <c r="B476" t="inlineStr"/>
@@ -14930,7 +14920,7 @@
       <c r="F476" t="inlineStr"/>
       <c r="G476" t="inlineStr">
         <is>
-          <t>prompt mental rehearsal of successful performance BCT</t>
+          <t>create behavioural contract BCT</t>
         </is>
       </c>
       <c r="H476" t="inlineStr"/>
@@ -14938,7 +14928,7 @@
       <c r="J476" t="inlineStr"/>
       <c r="K476" t="inlineStr">
         <is>
-          <t>A &lt;prompt thinking related to successful performance BCT&gt; that prompts the person to practise imagining performing the behaviour well in a relevant context.</t>
+          <t>A &lt;goal directed BCT&gt; that creates a written specification of the behaviour to be performed, agreed on by the person, and witnessed by another person.</t>
         </is>
       </c>
       <c r="L476" t="inlineStr">
@@ -14946,16 +14936,26 @@
           <t>behaviour change technique</t>
         </is>
       </c>
+      <c r="N476" t="inlineStr">
+        <is>
+          <t>behavioural contract</t>
+        </is>
+      </c>
+      <c r="P476" t="inlineStr">
+        <is>
+          <t>The person witnessing the agreement can be the intervention source or another person who is present at the time. Also code 'set behaviour goal BCT'.</t>
+        </is>
+      </c>
       <c r="Q476" t="inlineStr">
         <is>
-          <t>BCT15.2 Mental rehearsal of successful performance</t>
+          <t>BCT1.8 Behavioural contract</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>BCIO:007140</t>
+          <t>BCIO:007012</t>
         </is>
       </c>
       <c r="B477" t="inlineStr"/>
@@ -14965,7 +14965,7 @@
       <c r="F477" t="inlineStr"/>
       <c r="G477" t="inlineStr">
         <is>
-          <t>prompt self-talk BCT</t>
+          <t>attend to discrepancy between current behaviour and goal BCT</t>
         </is>
       </c>
       <c r="H477" t="inlineStr"/>
@@ -14973,7 +14973,7 @@
       <c r="J477" t="inlineStr"/>
       <c r="K477" t="inlineStr">
         <is>
-          <t>A &lt;prompt thinking related to successful performance BCT&gt; that promotes the use of positive self-talk before or during the behaviour.</t>
+          <t>A &lt;goal directed BCT&gt; that draws attention to discrepancies between a person's current behaviour and the person's outcome goal, behavioural goal or action plan.</t>
         </is>
       </c>
       <c r="L477" t="inlineStr">
@@ -14983,19 +14983,19 @@
       </c>
       <c r="P477" t="inlineStr">
         <is>
-          <t>Self-talk could be about the behaviour or the context of the behaviour. Self-talk does not need to be spoken aloud</t>
+          <t>If discomfort is created only code 'draw attention to incompatible beliefs BCT' and not this class. If goals are modified, also code 'review behaviour goal BCT' and/or 'review outcome goal BCT'; if feedback provided, also code 'provide feedback BCT' or one of its child classes.</t>
         </is>
       </c>
       <c r="Q477" t="inlineStr">
         <is>
-          <t>BCT15.4 Self-talk</t>
+          <t>BCT1.6 Discrepancy between current behaviour and goal</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>BCIO:007139</t>
+          <t>BCIO:007016</t>
         </is>
       </c>
       <c r="B478" t="inlineStr"/>
@@ -15005,7 +15005,7 @@
       <c r="F478" t="inlineStr"/>
       <c r="G478" t="inlineStr">
         <is>
-          <t>prompt focus on past success BCT</t>
+          <t>advise goal integration BCT</t>
         </is>
       </c>
       <c r="H478" t="inlineStr"/>
@@ -15013,7 +15013,7 @@
       <c r="J478" t="inlineStr"/>
       <c r="K478" t="inlineStr">
         <is>
-          <t>A &lt;prompt thinking related to successful performance BCT&gt; that prompts the person to think about previous successful performance of the behaviour.</t>
+          <t>A &lt;goal directed BCT&gt; that advises the person to adopt more than one goal in a situation where the goals facilitate each other.</t>
         </is>
       </c>
       <c r="L478" t="inlineStr">
@@ -15021,9 +15021,9 @@
           <t>behaviour change technique</t>
         </is>
       </c>
-      <c r="Q478" t="inlineStr">
-        <is>
-          <t>BCT15.3 Focus on past success</t>
+      <c r="N478" t="inlineStr">
+        <is>
+          <t>goal facilitation</t>
         </is>
       </c>
     </row>
